--- a/data/QT/Count_summary_QT.xlsx
+++ b/data/QT/Count_summary_QT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton.lamb/Google Drive/Documents/University/PDF/analyses/KZdemography/IPM/KZ-and-QT-IPMs/data/QT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton.lamb/Google Drive/Documents/University/PDF/analyses/KZdemography/KZ_QT_IPM/data/QT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5985D54B-FB70-D549-B9F6-7F659C2F5D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D29544B-8F9A-C84D-B722-2E29E2137569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31000" yWindow="460" windowWidth="31000" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Year</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>MinCount_ADULTMF</t>
+  </si>
+  <si>
+    <t>MinCount_CALFMF</t>
   </si>
 </sst>
 </file>
@@ -957,25 +960,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -986,48 +989,51 @@
         <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -1038,342 +1044,360 @@
         <v>123</v>
       </c>
       <c r="D3">
+        <v>31</v>
+      </c>
+      <c r="E3">
         <v>123</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>31</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.64</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>0.75</f>
         <v>0.75</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.25</v>
       </c>
-      <c r="I3">
-        <f>D3/G3</f>
+      <c r="J3">
+        <f>E3/H3</f>
         <v>164</v>
       </c>
-      <c r="J3">
-        <f>D3*H3</f>
+      <c r="K3">
+        <f>E3*I3</f>
         <v>30.75</v>
       </c>
-      <c r="K3">
-        <f>E3/G3</f>
+      <c r="L3">
+        <f>F3/H3</f>
         <v>41.333333333333336</v>
       </c>
-      <c r="L3">
-        <f>E3*H3</f>
+      <c r="M3">
+        <f>F3*I3</f>
         <v>7.75</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2003</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2004</v>
       </c>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2005</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2006</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2007</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2008</v>
       </c>
       <c r="B9">
-        <f>E9+D9</f>
+        <f>F9+E9</f>
         <v>95</v>
       </c>
       <c r="C9">
         <v>147</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
+        <v>26</v>
+      </c>
+      <c r="E9">
         <v>77</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>18</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.64</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I9">
-        <f>D9/G9</f>
+      <c r="J9">
+        <f>E9/H9</f>
         <v>135.08771929824562</v>
       </c>
-      <c r="J9">
-        <f>D9*H9</f>
+      <c r="K9">
+        <f>E9*I9</f>
         <v>10.780000000000001</v>
       </c>
-      <c r="K9">
-        <f>E9/G9</f>
+      <c r="L9">
+        <f>F9/H9</f>
         <v>31.578947368421055</v>
       </c>
-      <c r="L9">
-        <f>E9*H9</f>
+      <c r="M9">
+        <f>F9*I9</f>
         <v>2.5200000000000005</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2009</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2010</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2011</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2012</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2013</v>
       </c>
       <c r="B14">
-        <f>E14+D14</f>
+        <f>F14+E14</f>
         <v>83</v>
       </c>
       <c r="C14">
         <v>78</v>
       </c>
       <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
         <v>78</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.64</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.65</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.11</v>
       </c>
-      <c r="I14">
-        <f>D14/G14</f>
+      <c r="J14">
+        <f>E14/H14</f>
         <v>120</v>
       </c>
-      <c r="J14">
-        <f>D14*H14</f>
+      <c r="K14">
+        <f>E14*I14</f>
         <v>8.58</v>
       </c>
-      <c r="K14">
-        <f>E14/G14</f>
+      <c r="L14">
+        <f>F14/H14</f>
         <v>7.6923076923076916</v>
       </c>
-      <c r="L14">
-        <f>E14*H14</f>
+      <c r="M14">
+        <f>F14*I14</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>12</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2014</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2015</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2016</v>
       </c>
       <c r="B17">
-        <f>E17+D17</f>
+        <f>F17+E17</f>
         <v>29</v>
       </c>
       <c r="C17">
         <v>23</v>
       </c>
       <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
         <v>23</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>6</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.64</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I17">
-        <f>D17/G17</f>
+      <c r="J17">
+        <f>E17/H17</f>
         <v>46</v>
       </c>
-      <c r="J17">
-        <f>D17*H17</f>
+      <c r="K17">
+        <f>E17*I17</f>
         <v>3.22</v>
       </c>
-      <c r="K17">
-        <f>E17/G17</f>
+      <c r="L17">
+        <f>F17/H17</f>
         <v>12</v>
       </c>
-      <c r="L17">
-        <f>E17*H17</f>
+      <c r="M17">
+        <f>F17*I17</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>18</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2018</v>
       </c>
       <c r="B19">
-        <f>E19+D19</f>
+        <f>F19+E19</f>
         <v>49</v>
       </c>
       <c r="C19">
         <v>37</v>
       </c>
       <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
         <v>37</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>12</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.64</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.67</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.11</v>
       </c>
-      <c r="I19">
-        <f>D19/G19</f>
+      <c r="J19">
+        <f>E19/H19</f>
         <v>55.223880597014919</v>
       </c>
-      <c r="J19">
-        <f>D19*H19</f>
+      <c r="K19">
+        <f>E19*I19</f>
         <v>4.07</v>
       </c>
-      <c r="K19">
-        <f>E19/G19</f>
+      <c r="L19">
+        <f>F19/H19</f>
         <v>17.910447761194028</v>
       </c>
-      <c r="L19">
-        <f>E19*H19</f>
+      <c r="M19">
+        <f>F19*I19</f>
         <v>1.32</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2019</v>
       </c>
       <c r="B20">
-        <f>E20+D20</f>
+        <f>F20+E20</f>
         <v>48</v>
       </c>
       <c r="C20" s="2">
         <v>66</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2">
         <v>36</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>12</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.64</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.75</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.16</v>
       </c>
-      <c r="I20">
-        <f>D20/G20</f>
+      <c r="J20">
+        <f>E20/H20</f>
         <v>48</v>
       </c>
-      <c r="J20">
-        <f>D20*H20</f>
+      <c r="K20">
+        <f>E20*I20</f>
         <v>5.76</v>
       </c>
-      <c r="K20">
-        <f>E20/G20</f>
+      <c r="L20">
+        <f>F20/H20</f>
         <v>16</v>
       </c>
-      <c r="L20">
-        <f>E20*H20</f>
+      <c r="M20">
+        <f>F20*I20</f>
         <v>1.92</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2020</v>
       </c>

--- a/data/QT/Count_summary_QT.xlsx
+++ b/data/QT/Count_summary_QT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton.lamb/Google Drive/Documents/University/PDF/analyses/KZdemography/KZ_QT_IPM/data/QT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton.lamb/Google Drive/Documents/University/PDF/PDF Analyses/KZdemography/KZ_QT_IPM copy/data/QT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D29544B-8F9A-C84D-B722-2E29E2137569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A99F4D3-7F9C-8343-AE00-398E2A721F7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31000" yWindow="460" windowWidth="31000" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36000" yWindow="540" windowWidth="31000" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MinCount_summary_KZ-withimm" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Year</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>MinCount_CALFMF</t>
+  </si>
+  <si>
+    <t>##not finalized, new data, check with Agnes</t>
   </si>
 </sst>
 </file>
@@ -960,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1402,6 +1405,55 @@
         <v>2020</v>
       </c>
     </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2021</v>
+      </c>
+      <c r="B22">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <f>53+16+6</f>
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>54</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>0.64</v>
+      </c>
+      <c r="H22">
+        <v>0.53</v>
+      </c>
+      <c r="I22">
+        <v>0.13</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22" si="0">E22/H22</f>
+        <v>101.88679245283018</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22" si="1">E22*I22</f>
+        <v>7.0200000000000005</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22" si="2">F22/H22</f>
+        <v>18.867924528301884</v>
+      </c>
+      <c r="M22">
+        <f>F22*I22</f>
+        <v>1.3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/QT/Count_summary_QT.xlsx
+++ b/data/QT/Count_summary_QT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton.lamb/Google Drive/Documents/University/PDF/PDF Analyses/KZdemography/KZ_QT_IPM copy/data/QT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton.lamb/Google Drive/Documents/University/PDF/PDF Analyses/KZdemography/KZ_QT_IPM/data/QT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A99F4D3-7F9C-8343-AE00-398E2A721F7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B304E3B-F716-9349-9D2D-FC667F119C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36000" yWindow="540" windowWidth="31000" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8900" yWindow="500" windowWidth="29500" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MinCount_summary_KZ-withimm" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Year</t>
   </si>
@@ -98,9 +98,6 @@
     <t xml:space="preserve">Estimate was 129 in report, rounding difference </t>
   </si>
   <si>
-    <t xml:space="preserve">Slight difference from the report due to removal of one group of 2 caribou (with one collar) that was outside the herd range . </t>
-  </si>
-  <si>
     <t>MinCount_ADULTMF</t>
   </si>
   <si>
@@ -108,6 +105,18 @@
   </si>
   <si>
     <t>##not finalized, new data, check with Agnes</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>MinCount</t>
+  </si>
+  <si>
+    <t>Slight difference from the report due to removal of one group of 2 caribou (with one collar) that was outside the herd range . Data Update: 2016 report records 'juveniles = 6', updated to 'juveniles = 5', one group of two caribou (one collared, car 191) determined to be outside herd boundary.</t>
+  </si>
+  <si>
+    <t>#'s from KMB updated gov #'s</t>
   </si>
 </sst>
 </file>
@@ -963,25 +972,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
+    <col min="16" max="16" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -989,469 +1002,581 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2001</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2002</v>
       </c>
       <c r="B3">
+        <f>G3+F3</f>
         <v>154</v>
       </c>
       <c r="C3">
+        <f>SUM(D3:E3)</f>
+        <v>154</v>
+      </c>
+      <c r="D3">
         <v>123</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>31</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>123</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>31</v>
       </c>
-      <c r="G3">
-        <v>0.64</v>
-      </c>
       <c r="H3">
+        <v>0.64</v>
+      </c>
+      <c r="I3">
         <f>0.75</f>
         <v>0.75</v>
       </c>
-      <c r="I3">
-        <v>0.25</v>
-      </c>
       <c r="J3">
-        <f>E3/H3</f>
+        <v>0.22</v>
+      </c>
+      <c r="K3">
+        <f>F3/I3</f>
         <v>164</v>
       </c>
-      <c r="K3">
-        <f>E3*I3</f>
-        <v>30.75</v>
-      </c>
       <c r="L3">
-        <f>F3/H3</f>
+        <f>F3*J3</f>
+        <v>27.06</v>
+      </c>
+      <c r="M3">
+        <f>G3/I3</f>
         <v>41.333333333333336</v>
       </c>
-      <c r="M3">
-        <f>F3*I3</f>
-        <v>7.75</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="N3">
+        <f>G3*J3</f>
+        <v>6.82</v>
+      </c>
+      <c r="O3">
+        <f>SUM(M3,K3)</f>
+        <v>205.33333333333334</v>
+      </c>
+      <c r="P3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2003</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2004</v>
       </c>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>0.64</v>
+      </c>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2005</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2006</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2007</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2008</v>
       </c>
       <c r="B9">
-        <f>F9+E9</f>
+        <f>G9+F9</f>
         <v>95</v>
       </c>
       <c r="C9">
+        <f>SUM(D9:E9)</f>
+        <v>173</v>
+      </c>
+      <c r="D9">
         <v>147</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>26</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>77</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>18</v>
       </c>
-      <c r="G9">
-        <v>0.64</v>
-      </c>
       <c r="H9">
+        <v>0.64</v>
+      </c>
+      <c r="I9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I9">
-        <v>0.14000000000000001</v>
-      </c>
       <c r="J9">
-        <f>E9/H9</f>
+        <v>0.13</v>
+      </c>
+      <c r="K9">
+        <f>F9/I9</f>
         <v>135.08771929824562</v>
       </c>
-      <c r="K9">
-        <f>E9*I9</f>
-        <v>10.780000000000001</v>
-      </c>
       <c r="L9">
-        <f>F9/H9</f>
+        <f>F9*J9</f>
+        <v>10.01</v>
+      </c>
+      <c r="M9">
+        <f>G9/I9</f>
         <v>31.578947368421055</v>
       </c>
-      <c r="M9">
-        <f>F9*I9</f>
-        <v>2.5200000000000005</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="N9">
+        <f>G9*J9</f>
+        <v>2.34</v>
+      </c>
+      <c r="O9">
+        <f>SUM(M9,K9)</f>
+        <v>166.66666666666669</v>
+      </c>
+      <c r="P9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2009</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2010</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2011</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2012</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2013</v>
       </c>
       <c r="B14">
-        <f>F14+E14</f>
+        <f>G14+F14</f>
         <v>83</v>
       </c>
       <c r="C14">
+        <f>SUM(D14:E14)</f>
+        <v>83</v>
+      </c>
+      <c r="D14">
         <v>78</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>78</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>5</v>
       </c>
-      <c r="G14">
-        <v>0.64</v>
-      </c>
       <c r="H14">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I14">
-        <v>0.11</v>
+        <v>0.85</v>
       </c>
       <c r="J14">
-        <f>E14/H14</f>
-        <v>120</v>
+        <v>0.1</v>
       </c>
       <c r="K14">
-        <f>E14*I14</f>
-        <v>8.58</v>
+        <f>F14/I14</f>
+        <v>91.764705882352942</v>
       </c>
       <c r="L14">
-        <f>F14/H14</f>
-        <v>7.6923076923076916</v>
+        <f>F14*J14</f>
+        <v>7.8000000000000007</v>
       </c>
       <c r="M14">
-        <f>F14*I14</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N14" t="s">
+        <f>G14/I14</f>
+        <v>5.882352941176471</v>
+      </c>
+      <c r="N14">
+        <f>G14*J14</f>
+        <v>0.5</v>
+      </c>
+      <c r="O14">
+        <f>SUM(M14,K14)</f>
+        <v>97.64705882352942</v>
+      </c>
+      <c r="P14" t="s">
         <v>12</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2014</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2015</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2016</v>
       </c>
       <c r="B17">
-        <f>F17+E17</f>
+        <f>G17+F17</f>
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <f>SUM(D17:E17)</f>
         <v>29</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>23</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>6</v>
       </c>
-      <c r="E17">
-        <v>23</v>
-      </c>
       <c r="F17">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G17">
-        <v>0.64</v>
+        <v>5</v>
       </c>
       <c r="H17">
+        <v>0.64</v>
+      </c>
+      <c r="I17">
         <v>0.5</v>
       </c>
-      <c r="I17">
-        <v>0.14000000000000001</v>
-      </c>
       <c r="J17">
-        <f>E17/H17</f>
-        <v>46</v>
+        <v>0.13</v>
       </c>
       <c r="K17">
-        <f>E17*I17</f>
-        <v>3.22</v>
+        <f>F17/I17</f>
+        <v>44</v>
       </c>
       <c r="L17">
-        <f>F17/H17</f>
-        <v>12</v>
+        <f>F17*J17</f>
+        <v>2.8600000000000003</v>
       </c>
       <c r="M17">
-        <f>F17*I17</f>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="N17" t="s">
+        <f>G17/I17</f>
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <f>G17*J17</f>
+        <v>0.65</v>
+      </c>
+      <c r="O17">
+        <f>SUM(M17,K17)</f>
+        <v>54</v>
+      </c>
+      <c r="P17" t="s">
         <v>18</v>
       </c>
-      <c r="O17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2017</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2018</v>
       </c>
       <c r="B19">
-        <f>F19+E19</f>
+        <f>G19+F19</f>
         <v>49</v>
       </c>
       <c r="C19">
+        <f>SUM(D19:E19)</f>
+        <v>67</v>
+      </c>
+      <c r="D19">
+        <v>54</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19">
         <v>37</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>12</v>
       </c>
-      <c r="E19">
-        <v>37</v>
-      </c>
-      <c r="F19">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>0.64</v>
-      </c>
       <c r="H19">
+        <v>0.64</v>
+      </c>
+      <c r="I19">
         <v>0.67</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.11</v>
       </c>
-      <c r="J19">
-        <f>E19/H19</f>
+      <c r="K19">
+        <f>F19/I19</f>
         <v>55.223880597014919</v>
       </c>
-      <c r="K19">
-        <f>E19*I19</f>
+      <c r="L19">
+        <f>F19*J19</f>
         <v>4.07</v>
       </c>
-      <c r="L19">
-        <f>F19/H19</f>
+      <c r="M19">
+        <f>G19/I19</f>
         <v>17.910447761194028</v>
       </c>
-      <c r="M19">
-        <f>F19*I19</f>
+      <c r="N19">
+        <f>G19*J19</f>
         <v>1.32</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19">
+        <f>SUM(M19,K19)</f>
+        <v>73.134328358208947</v>
+      </c>
+      <c r="P19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2019</v>
       </c>
       <c r="B20">
-        <f>F20+E20</f>
+        <f>G20+F20</f>
         <v>48</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
+        <f>SUM(D20:E20)</f>
+        <v>88</v>
+      </c>
+      <c r="D20" s="2">
         <v>66</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>22</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>36</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>12</v>
       </c>
-      <c r="G20">
-        <v>0.64</v>
-      </c>
       <c r="H20">
+        <v>0.64</v>
+      </c>
+      <c r="I20">
         <v>0.75</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.16</v>
       </c>
-      <c r="J20">
-        <f>E20/H20</f>
+      <c r="K20">
+        <f>F20/I20</f>
         <v>48</v>
       </c>
-      <c r="K20">
-        <f>E20*I20</f>
+      <c r="L20">
+        <f>F20*J20</f>
         <v>5.76</v>
       </c>
-      <c r="L20">
-        <f>F20/H20</f>
+      <c r="M20">
+        <f>G20/I20</f>
         <v>16</v>
       </c>
-      <c r="M20">
-        <f>F20*I20</f>
+      <c r="N20">
+        <f>G20*J20</f>
         <v>1.92</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20">
+        <f>SUM(M20,K20)</f>
+        <v>64</v>
+      </c>
+      <c r="P20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2021</v>
       </c>
       <c r="B22">
+        <f>G22+F22</f>
         <v>64</v>
       </c>
       <c r="C22">
+        <f>SUM(D22:E22)</f>
+        <v>89</v>
+      </c>
+      <c r="D22">
         <f>53+16+6</f>
         <v>75</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>14</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>54</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>10</v>
       </c>
-      <c r="G22">
-        <v>0.64</v>
-      </c>
       <c r="H22">
+        <v>0.64</v>
+      </c>
+      <c r="I22">
         <v>0.53</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.13</v>
       </c>
-      <c r="J22">
-        <f t="shared" ref="J22" si="0">E22/H22</f>
+      <c r="K22">
+        <f t="shared" ref="K22" si="0">F22/I22</f>
         <v>101.88679245283018</v>
       </c>
-      <c r="K22">
-        <f t="shared" ref="K22" si="1">E22*I22</f>
+      <c r="L22">
+        <f t="shared" ref="L22" si="1">F22*J22</f>
         <v>7.0200000000000005</v>
       </c>
-      <c r="L22">
-        <f t="shared" ref="L22" si="2">F22/H22</f>
+      <c r="M22">
+        <f t="shared" ref="M22" si="2">G22/I22</f>
         <v>18.867924528301884</v>
       </c>
-      <c r="M22">
-        <f>F22*I22</f>
+      <c r="N22">
+        <f>G22*J22</f>
         <v>1.3</v>
       </c>
-      <c r="N22" t="s">
-        <v>25</v>
+      <c r="O22">
+        <f>SUM(M22,K22)</f>
+        <v>120.75471698113206</v>
+      </c>
+      <c r="P22" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/QT/Count_summary_QT.xlsx
+++ b/data/QT/Count_summary_QT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton.lamb/Google Drive/Documents/University/PDF/PDF Analyses/KZdemography/KZ_QT_IPM/data/QT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B304E3B-F716-9349-9D2D-FC667F119C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A87C813-5273-B542-A1AD-33A91B37B88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="500" windowWidth="29500" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MinCount_summary_KZ-withimm" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Year</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Seip and Pelltier 2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Estimate was 129 in report, rounding difference </t>
-  </si>
-  <si>
     <t>MinCount_ADULTMF</t>
   </si>
   <si>
@@ -117,6 +114,18 @@
   </si>
   <si>
     <t>#'s from KMB updated gov #'s</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>HEWR</t>
+  </si>
+  <si>
+    <t>HEWR+rugged west</t>
+  </si>
+  <si>
+    <t>Estimate was 129 in report. Note (BM): We used the population estimate based strictly on the caribou seen within the survey area. // MC: This is the estimate for the entire population when we correct for 24% of the population that may have been outside the census area (i.e. four of the 17 radio-collared caribou were outside the census area.). Note (BM): Another MC population estimate is given; 129 caribou, with a lower and upper 95% CI of (114, 129) and a SCF of 0.76. "This is the estimate for the entire population when we correct for 24% of the population that may have been outside the census area (i.e. four of the 17 radio-collared caribou were outside the census area.)" // Note (BM): Confidence level for population estimate is 95%.</t>
   </si>
 </sst>
 </file>
@@ -972,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,7 +1003,7 @@
     <col min="16" max="16" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1002,13 +1011,13 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -1038,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -1049,8 +1058,11 @@
       <c r="R1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -1058,7 +1070,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -1118,8 +1130,11 @@
       <c r="R3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -1127,7 +1142,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -1136,7 +1151,7 @@
       </c>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -1144,7 +1159,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -1152,7 +1167,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -1160,7 +1175,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -1216,8 +1231,11 @@
       <c r="P9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -1225,7 +1243,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -1233,7 +1251,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -1241,7 +1259,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -1249,7 +1267,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -1259,13 +1277,13 @@
       </c>
       <c r="C14">
         <f>SUM(D14:E14)</f>
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="D14">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>78</v>
@@ -1306,10 +1324,13 @@
         <v>12</v>
       </c>
       <c r="Q14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="S14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -1317,7 +1338,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -1335,13 +1356,13 @@
       </c>
       <c r="C17">
         <f>SUM(D17:E17)</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17">
         <v>22</v>
@@ -1382,7 +1403,7 @@
         <v>18</v>
       </c>
       <c r="Q17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -1450,7 +1471,7 @@
         <v>19</v>
       </c>
       <c r="Q19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -1510,7 +1531,7 @@
         <v>20</v>
       </c>
       <c r="Q20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -1576,7 +1597,7 @@
         <v>120.75471698113206</v>
       </c>
       <c r="P22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
